--- a/public/uploads/teacher.xlsx
+++ b/public/uploads/teacher.xlsx
@@ -14,86 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>Sanjay Kumar</t>
-  </si>
-  <si>
-    <t>Ashwani Kumar</t>
-  </si>
-  <si>
-    <t>Vidhu Shekhar Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARAMVIR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetan Kumar Jangir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinod Kumar </t>
-  </si>
-  <si>
-    <t>Perwez Alam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jitendra Kumar </t>
-  </si>
-  <si>
-    <t>Ravin Kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhishek Kumar </t>
-  </si>
-  <si>
-    <t>PRADEEP KUMAR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Kewal Kumar</t>
   </si>
   <si>
-    <t>Abhishek Ghanekar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna Gopal Meena </t>
-  </si>
-  <si>
     <t xml:space="preserve">HARJIT KAUR </t>
   </si>
   <si>
-    <t xml:space="preserve">RAHUL RANJAN </t>
-  </si>
-  <si>
     <t>Dr. Surender Singh Saini</t>
   </si>
   <si>
-    <t>Deepak Kashyap</t>
-  </si>
-  <si>
     <t>Durgesh Mishra</t>
   </si>
   <si>
-    <t>Hishwinder Singh</t>
-  </si>
-  <si>
-    <t>MD Meena</t>
-  </si>
-  <si>
-    <t>PK Manjhi</t>
-  </si>
-  <si>
-    <t>Harichand Singh</t>
-  </si>
-  <si>
-    <t>Dr. Sanjeev Verma</t>
-  </si>
-  <si>
-    <t>Harsh kumar</t>
-  </si>
-  <si>
-    <t>Himanshu Kumar Singh</t>
-  </si>
-  <si>
     <t>Dr. Amol P. Bhondekar</t>
   </si>
   <si>
@@ -121,103 +55,37 @@
     <t>TeacherID</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>M12</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>M14</t>
-  </si>
-  <si>
-    <t>M15</t>
-  </si>
-  <si>
-    <t>M16</t>
-  </si>
-  <si>
-    <t>M17</t>
-  </si>
-  <si>
-    <t>M18</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
+    <t>EL5</t>
+  </si>
+  <si>
+    <t>EL6</t>
+  </si>
+  <si>
+    <t>EL7</t>
+  </si>
+  <si>
+    <t>EL8</t>
+  </si>
+  <si>
+    <t>EL9</t>
+  </si>
+  <si>
+    <t>EL10</t>
+  </si>
+  <si>
+    <t>EL11</t>
+  </si>
+  <si>
+    <t>EL12</t>
+  </si>
+  <si>
+    <t>EL13</t>
+  </si>
+  <si>
+    <t>EL14</t>
+  </si>
+  <si>
+    <t>EL15</t>
   </si>
 </sst>
 </file>
@@ -239,27 +107,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor rgb="FFF8F9FA"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -359,21 +215,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -391,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -414,21 +255,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,16 +279,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color rgb="FFFFFFFF"/>
+          <color rgb="FFF8F9FA"/>
         </left>
         <right style="thin">
-          <color rgb="FFFFFFFF"/>
+          <color rgb="FFF8F9FA"/>
         </right>
         <top style="thin">
-          <color rgb="FFFFFFFF"/>
+          <color rgb="FFF8F9FA"/>
         </top>
         <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
+          <color rgb="FFF8F9FA"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -490,13 +316,13 @@
           <color rgb="FF442F65"/>
         </left>
         <right style="thin">
-          <color rgb="FFFFFFFF"/>
+          <color rgb="FFF8F9FA"/>
         </right>
         <top style="thin">
-          <color rgb="FFFFFFFF"/>
+          <color rgb="FFF8F9FA"/>
         </top>
         <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
+          <color rgb="FFF8F9FA"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -596,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Form_Responses1_3" displayName="Form_Responses1_3" ref="A1:B34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Form_Responses1_3" displayName="Form_Responses1_3" ref="A1:B14">
   <tableColumns count="2">
     <tableColumn id="1" name="TeacherID" dataDxfId="1"/>
     <tableColumn id="3" name="Name" dataDxfId="0"/>
@@ -806,11 +632,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -822,275 +648,107 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/teacher.xlsx
+++ b/public/uploads/teacher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="20775" windowHeight="7620"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="24810" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="teacherlist" sheetId="2" r:id="rId1"/>
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Kewal Kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARJIT KAUR </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Dr. Surender Singh Saini</t>
   </si>
   <si>
-    <t>Durgesh Mishra</t>
+    <t>Dr. Sanjeev Verma</t>
   </si>
   <si>
     <t>Dr. Amol P. Bhondekar</t>
@@ -34,25 +28,163 @@
     <t>Dr. Jitendra Virmani</t>
   </si>
   <si>
-    <t>Madan Lal</t>
-  </si>
-  <si>
-    <t>Upendra Kumar</t>
-  </si>
-  <si>
     <t>Dr. Anil G Sonkusare</t>
   </si>
   <si>
-    <t>Rouble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gopal </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>TeacherID</t>
+  </si>
+  <si>
+    <t>Mr. Vidhu Shekhar Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. KARAMVIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Chetan Kumar Jangir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vinod Kumar </t>
+  </si>
+  <si>
+    <t>Mr. Perwez Alam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jitendra Kumar </t>
+  </si>
+  <si>
+    <t>Mr. PRADEEP KUMAR</t>
+  </si>
+  <si>
+    <t>Mr. Abhishek Ghanekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Krishna Gopal Meena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. RAHUL RANJAN </t>
+  </si>
+  <si>
+    <t>Mr Deepak Kashyap</t>
+  </si>
+  <si>
+    <t>Mr. Hishwinder Singh</t>
+  </si>
+  <si>
+    <t>Mrs. MD Meena</t>
+  </si>
+  <si>
+    <t>Mr. PK Manjhi</t>
+  </si>
+  <si>
+    <t>Mr. Harichand Singh</t>
+  </si>
+  <si>
+    <t>Mr. Harsh kumar</t>
+  </si>
+  <si>
+    <t>Mr. Himanshu Kumar Singh</t>
+  </si>
+  <si>
+    <t>Mr. Sanjay Kumar</t>
+  </si>
+  <si>
+    <t>Mr. Ashwani Kumar</t>
+  </si>
+  <si>
+    <t>Mr. Ravin Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Abhishek Kumar </t>
+  </si>
+  <si>
+    <t>Mr. Kewal Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. HARJIT KAUR </t>
+  </si>
+  <si>
+    <t>Mr. Durgesh Mishra</t>
+  </si>
+  <si>
+    <t>Mr. Madan Lal</t>
+  </si>
+  <si>
+    <t>Mr. Upendra Kumar</t>
+  </si>
+  <si>
+    <t>Mr. Rouble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gopal </t>
+  </si>
+  <si>
+    <t>ME1</t>
+  </si>
+  <si>
+    <t>ME2</t>
+  </si>
+  <si>
+    <t>ME3</t>
+  </si>
+  <si>
+    <t>ME4</t>
+  </si>
+  <si>
+    <t>ME5</t>
+  </si>
+  <si>
+    <t>ME6</t>
+  </si>
+  <si>
+    <t>ME7</t>
+  </si>
+  <si>
+    <t>ME8</t>
+  </si>
+  <si>
+    <t>ME9</t>
+  </si>
+  <si>
+    <t>ME10</t>
+  </si>
+  <si>
+    <t>ME11</t>
+  </si>
+  <si>
+    <t>ME12</t>
+  </si>
+  <si>
+    <t>ME13</t>
+  </si>
+  <si>
+    <t>ME14</t>
+  </si>
+  <si>
+    <t>ME15</t>
+  </si>
+  <si>
+    <t>ME16</t>
+  </si>
+  <si>
+    <t>ME17</t>
+  </si>
+  <si>
+    <t>ME18</t>
+  </si>
+  <si>
+    <t>EL1</t>
+  </si>
+  <si>
+    <t>EL2</t>
+  </si>
+  <si>
+    <t>EL3</t>
+  </si>
+  <si>
+    <t>EL4</t>
   </si>
   <si>
     <t>EL5</t>
@@ -107,15 +239,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,6 +359,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -232,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -249,10 +408,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -279,16 +450,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color rgb="FFF8F9FA"/>
+          <color rgb="FFFFFFFF"/>
         </left>
         <right style="thin">
-          <color rgb="FFF8F9FA"/>
+          <color rgb="FFFFFFFF"/>
         </right>
         <top style="thin">
-          <color rgb="FFF8F9FA"/>
+          <color rgb="FFFFFFFF"/>
         </top>
         <bottom style="thin">
-          <color rgb="FFF8F9FA"/>
+          <color rgb="FFFFFFFF"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -316,13 +487,13 @@
           <color rgb="FF442F65"/>
         </left>
         <right style="thin">
-          <color rgb="FFF8F9FA"/>
+          <color rgb="FFFFFFFF"/>
         </right>
         <top style="thin">
-          <color rgb="FFF8F9FA"/>
+          <color rgb="FFFFFFFF"/>
         </top>
         <bottom style="thin">
-          <color rgb="FFF8F9FA"/>
+          <color rgb="FFFFFFFF"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -422,7 +593,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Form_Responses1_3" displayName="Form_Responses1_3" ref="A1:B14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Form_Responses1_3" displayName="Form_Responses1_3" ref="A1:B34">
   <tableColumns count="2">
     <tableColumn id="1" name="TeacherID" dataDxfId="1"/>
     <tableColumn id="3" name="Name" dataDxfId="0"/>
@@ -632,11 +803,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -648,107 +819,275 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
